--- a/sample_data/indo_reviews.xlsx
+++ b/sample_data/indo_reviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Project_Sentiment_Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE0331-C631-40A1-8774-881BE6AB770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04DBEE-7285-45D2-8CA2-7251056EF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EBB472B4-1DE8-4D5D-AD5C-4824702B7DD0}"/>
   </bookViews>
@@ -34,28 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>komentar</t>
   </si>
   <si>
-    <t>Aplikasi ini luar biasa!</t>
-  </si>
-  <si>
-    <t>Lambat dan membingungkan.</t>
-  </si>
-  <si>
-    <t>Desainnya indah.</t>
-  </si>
-  <si>
-    <t>aku suka belajar AI</t>
+    <t>Aplikasinya sangat bagus dan membantu pekerjaan saya!</t>
+  </si>
+  <si>
+    <t>Lemot banget, sering keluar sendiri pas lagi dipakai.</t>
+  </si>
+  <si>
+    <t>Desainnya keren sih, tapi kadang masih suka error.</t>
+  </si>
+  <si>
+    <t>Suka banget sama update terbarunya, jadi lebih cepat.</t>
+  </si>
+  <si>
+    <t>CS-nya parah, gak ada yang bales email komplain saya.</t>
+  </si>
+  <si>
+    <t>Lumayan lah, tapi iklannya kebanyakan jadi ganggu.</t>
+  </si>
+  <si>
+    <t>Aplikasi terbaik untuk produktivitas, sangat rekomen!</t>
+  </si>
+  <si>
+    <t>Gak bisa login setelah ganti password. Tolong diperbaiki.</t>
+  </si>
+  <si>
+    <t>Fiturnya berguna, tapi tampilannya agak membingungkan.</t>
+  </si>
+  <si>
+    <t>Kasih bintang lima! Berfungsi sesuai deskripsi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +89,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,12 +104,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,8 +136,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,40 +453,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D50A82C-CD62-4872-9A59-EB135187268E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:A5"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
